--- a/doc/hacku_documents.xlsx
+++ b/doc/hacku_documents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\velduce\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B7183-7ABE-4180-9AA1-FBFC60F7AEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A6E09-9BC1-4EB6-BB67-B2521CEE5C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
   </bookViews>
@@ -93,6 +93,67 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>378178</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>188551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F73F55-5361-43D2-9D2B-5772F911E11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11046178" y="18635301"/>
+          <a:ext cx="15522" cy="1327512"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3566,68 +3627,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>177077</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0540765A-5806-4C6F-9576-657D69681BBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1358900" y="15738475"/>
-          <a:ext cx="4679950" cy="2885352"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>13765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
+      <xdr:rowOff>10585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3642,8 +3653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="18735674"/>
-          <a:ext cx="5746750" cy="3673022"/>
+          <a:off x="920750" y="20503098"/>
+          <a:ext cx="5651500" cy="2790820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3685,9 +3696,49 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・スポット一覧表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>トップページと同様に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>上の表示・検索時と同じ感じで！</a:t>
-          </a:r>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>余力があったら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索で絞りながらスポット選択できるようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -3733,7 +3784,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・初期位置を位置情報による現在置にする</a:t>
+            <a:t>・検索で使った</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を少し応用させるイメージ！</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
             <a:solidFill>
@@ -3742,112 +3809,98 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・検索で使った</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>form</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を少し応用させるイメージ！</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・初期位置を位置情報による現在置にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余力があったら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>639233</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>227542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>177077</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC3DA77-DE3E-40F4-A1F3-7449551A2B9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8680450" y="15744825"/>
-          <a:ext cx="4686300" cy="2879002"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>645583</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>13759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3862,8 +3915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2692400" y="15287625"/>
-          <a:ext cx="2006600" cy="241300"/>
+          <a:off x="2607733" y="16060209"/>
+          <a:ext cx="1974850" cy="251883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3923,15 +3976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>172508</xdr:rowOff>
+      <xdr:colOff>2117</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>172508</xdr:rowOff>
+      <xdr:colOff>14817</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3946,8 +3999,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7346950" y="17730258"/>
-          <a:ext cx="12700" cy="3778250"/>
+          <a:off x="7219950" y="18629841"/>
+          <a:ext cx="12700" cy="3958167"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3976,16 +4029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656165</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>227540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>607483</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>175850</xdr:rowOff>
+      <xdr:rowOff>228766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4000,8 +4053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7387166" y="21510624"/>
-          <a:ext cx="1274234" cy="1226"/>
+          <a:off x="7217832" y="22579540"/>
+          <a:ext cx="1263651" cy="1226"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4031,15 +4084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>216958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>649817</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>185209</xdr:rowOff>
+      <xdr:rowOff>227542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4054,8 +4107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="19510375"/>
-          <a:ext cx="1987550" cy="232834"/>
+          <a:off x="9848850" y="20473458"/>
+          <a:ext cx="1955800" cy="243417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4117,13 +4170,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>178858</xdr:rowOff>
+      <xdr:rowOff>221190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>664633</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2117</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>180084</xdr:rowOff>
+      <xdr:rowOff>222416</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4138,8 +4191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6057900" y="17736608"/>
-          <a:ext cx="1274233" cy="1226"/>
+          <a:off x="5962650" y="18615023"/>
+          <a:ext cx="1257300" cy="1226"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4239,67 +4292,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32456</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>229660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>171980</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4293262E-FB34-4B1E-A7BE-FE8A068C6A27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="7161"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8700206" y="19962813"/>
-          <a:ext cx="4698294" cy="2878667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>187326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>630767</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4314,8 +4318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8032750" y="23301326"/>
-          <a:ext cx="5975350" cy="2209799"/>
+          <a:off x="7874000" y="24909993"/>
+          <a:ext cx="5880100" cy="3961340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4350,6 +4354,64 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>既に入力されているスポット選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が失われないようにする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>必要がある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
             <a:t>サーバ側</a:t>
           </a:r>
@@ -4366,7 +4428,14 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データを受け取る </a:t>
+            <a:t>データを受け取る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -4378,7 +4447,31 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>'....}</a:t>
+            <a:t>',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 'input_form_id_1': 1, 'input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_form_id_2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>':  16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4441,6 +4534,100 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>}]</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・同時に「既に選択済みのスポット情報」も渡す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[{'id':1,'title':'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～が凄い名城大学</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>', 'text': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>学食が旨いねん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>','tag__name':'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大学</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>','fab_count': 12, 'lon':122.133, 'lat':134.321}, {'id':16,....}]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -4477,15 +4664,46 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・初回アクセス時と同様の処理で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OK!</a:t>
+            <a:t>・初回アクセス時と同様の処理で地図を描画</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>既に選択済みのスポット情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
             <a:solidFill>
@@ -4497,156 +4715,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>378178</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>188551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線コネクタ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F73F55-5361-43D2-9D2B-5772F911E11E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="54" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11046178" y="18635301"/>
-          <a:ext cx="15522" cy="1327512"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>573631</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1396536" cy="542841"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD90C96-CF4E-44EC-AD56-6F6B500D4FD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11241631" y="19046825"/>
-          <a:ext cx="1396536" cy="542841"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>マーカーにカーソル</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>を合わせる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -4823,13 +4891,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>32807</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4844,8 +4912,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6016625" y="17113250"/>
-          <a:ext cx="2641600" cy="6350"/>
+          <a:off x="5969000" y="17682985"/>
+          <a:ext cx="2625725" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6302,6 +6370,522 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>106184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC63D244-BC4C-43D8-B724-3ADFD979E28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="7280"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540750" y="20955000"/>
+          <a:ext cx="4582583" cy="3598684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567677</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1531188" cy="542841"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E52478-F408-48DB-B3A0-183E484D4991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6473177" y="16996834"/>
+          <a:ext cx="1531188" cy="542841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>マーカーの選択ボタン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>131552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028CC02-D216-4C5D-9901-D03D4D71A857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="6925"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1291167" y="16520583"/>
+          <a:ext cx="4646083" cy="3634636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>184470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D487E4B-2F6E-41FA-B71F-734B96818103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="6925"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8551334" y="16107834"/>
+          <a:ext cx="4646083" cy="3634636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518994</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1531188" cy="542841"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78AD57E-998D-4784-8C6D-C15D021DFF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11017661" y="19922067"/>
+          <a:ext cx="1531188" cy="542841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>マーカーの選択ボタン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>645584</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2C4FF-C260-4B21-B0F3-A737B319D43E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487400" y="15706725"/>
+          <a:ext cx="4218517" cy="1755775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・スポット数はとりあえず</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>くらい？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>画面に収まるくらい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・移動手段は自転車</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>車</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>電車</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・自転車なら前のスポットから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>5km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>圏内くらい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・車なら前のスポットから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>10km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>圏内くらい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・電車なら制限無し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・選択欄の右上に✓を入れると、タグに入れたタグ条件でスポットをランダム検索する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6461,13 +7045,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>73297</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6482,8 +7066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297714" y="2899229"/>
-          <a:ext cx="2722154" cy="2915558"/>
+          <a:off x="5297714" y="2899228"/>
+          <a:ext cx="2722154" cy="3233057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6531,7 +7115,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>55428</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1426416" cy="2711357"/>
+    <xdr:ext cx="1426416" cy="2956287"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
@@ -6546,7 +7130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5328285" y="3003642"/>
-          <a:ext cx="1426416" cy="2711357"/>
+          <a:ext cx="1426416" cy="2956287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6669,6 +7253,16 @@
               </a:solidFill>
             </a:rPr>
             <a:t>address</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>prefecture</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7573,15 +8167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>622298</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1813</xdr:rowOff>
+      <xdr:colOff>640441</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>35195</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:colOff>53338</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7596,7 +8190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2608941" y="5898242"/>
+          <a:off x="2627084" y="6360885"/>
           <a:ext cx="2723968" cy="1513115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7641,9 +8235,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43269</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44542</xdr:rowOff>
+      <xdr:colOff>61412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1426416" cy="1352458"/>
     <xdr:sp macro="" textlink="">
@@ -7659,7 +8253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2692126" y="5940971"/>
+          <a:off x="2710269" y="6403614"/>
           <a:ext cx="1426416" cy="1352458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7764,15 +8358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>653506</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83457</xdr:rowOff>
+      <xdr:colOff>272506</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7787,7 +8381,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1977935" y="5072743"/>
+          <a:off x="1596935" y="5444671"/>
           <a:ext cx="1496422" cy="742043"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7813,16 +8407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>181428</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>308428</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7837,7 +8431,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2168071" y="5007428"/>
+          <a:off x="1787071" y="5379356"/>
           <a:ext cx="127000" cy="335643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7864,15 +8458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>488044</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:colOff>107044</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>633186</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>252186</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7887,7 +8481,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3136901" y="5459186"/>
+          <a:off x="2755901" y="5831114"/>
           <a:ext cx="145142" cy="362858"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7914,15 +8508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45358</xdr:rowOff>
+      <xdr:colOff>326574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7937,7 +8531,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3800930" y="5261429"/>
+          <a:off x="3637645" y="5651500"/>
           <a:ext cx="1433284" cy="526143"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7964,15 +8558,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>170541</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:colOff>7256</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>308428</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7987,7 +8581,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4806041" y="5168899"/>
+          <a:off x="4642756" y="5558970"/>
           <a:ext cx="137887" cy="373744"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8013,16 +8607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105227</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>205013</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8037,7 +8631,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4078513" y="5421084"/>
+          <a:off x="3915228" y="5811155"/>
           <a:ext cx="166915" cy="375558"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10211,7 +10805,7 @@
   <dimension ref="AL53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="CF63" sqref="CF63"/>
+      <selection activeCell="CB49" sqref="CB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10231,8 +10825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA38122-CDD1-42DD-9DAD-B5DE8C29AEA2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10247,8 +10841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4938895-935B-4746-B7E7-CA6D286FA6D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/hacku_documents.xlsx
+++ b/doc/hacku_documents.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\velduce\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A6E09-9BC1-4EB6-BB67-B2521CEE5C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAAC670-32BC-4CE0-8492-C39F78A7ED71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Webアプリ" sheetId="1" r:id="rId1"/>
-    <sheet name="DB設計" sheetId="2" r:id="rId2"/>
-    <sheet name="技術構成図_簡易版" sheetId="3" r:id="rId3"/>
+    <sheet name="スケジュール" sheetId="4" r:id="rId2"/>
+    <sheet name="DB設計" sheetId="2" r:id="rId3"/>
+    <sheet name="技術構成図_簡易版" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -24,6 +25,197 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>14日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,6 +272,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,8 +405,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98423</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -230,8 +427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="5210173"/>
-          <a:ext cx="5746750" cy="5029201"/>
+          <a:off x="276225" y="5588000"/>
+          <a:ext cx="5651500" cy="5138207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -273,12 +470,43 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>show_top(request)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>関数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・スポットを全て</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(form</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>form</a:t>
+            <a:t>loaction</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -286,13 +514,8 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>,loaction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブルからスポットを全て取得</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -766,13 +989,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99651</xdr:rowOff>
+      <xdr:rowOff>94360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106001</xdr:rowOff>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -790,8 +1013,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5362575" y="3655651"/>
-          <a:ext cx="2641600" cy="6350"/>
+          <a:off x="5277908" y="3819693"/>
+          <a:ext cx="2599267" cy="15178"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -833,8 +1056,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>208827</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -863,8 +1086,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8004175" y="2219325"/>
-          <a:ext cx="4686300" cy="2879002"/>
+          <a:off x="7877175" y="2314575"/>
+          <a:ext cx="4612217" cy="3040592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1033,7 +1256,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(GET):    /top/</a:t>
+            <a:t>(GET):    /top/   (name="top")</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1482,6 +1705,62 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show_top(request)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>関数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・送られてきた</a:t>
@@ -1508,6 +1787,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・取得した</a:t>
@@ -1519,6 +1815,66 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>で検索をかける</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>loaction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1886,15 +2242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>221193</xdr:rowOff>
+      <xdr:colOff>5291</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>231776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7409</xdr:rowOff>
+      <xdr:colOff>11641</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17992</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1909,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36792958" y="1851026"/>
+          <a:off x="36750624" y="1628776"/>
           <a:ext cx="1974850" cy="251883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1954,7 +2310,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(GET):    /form/</a:t>
+            <a:t>(GET):    /form/  (name="form")</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -2033,6 +2389,21 @@
             <a:t>サーバ側</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>form(request)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>関数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2863,16 +3234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>640291</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89959</xdr:rowOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>5291</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>216960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>646641</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>11641</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>109009</xdr:rowOff>
+      <xdr:rowOff>84668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2887,8 +3258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43947291" y="3582459"/>
-          <a:ext cx="1974850" cy="251883"/>
+          <a:off x="43968458" y="3243793"/>
+          <a:ext cx="1974850" cy="566208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2932,7 +3303,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(POST):    /form/end/</a:t>
+            <a:t>(POST):    /form/end/   (name="form_end")</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -3009,6 +3380,54 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
             <a:t>サーバ側</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>form_end(request)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>関数</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
         </a:p>
@@ -3769,6 +4188,24 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>root.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>・基本的には上の表示時と同じ感じ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
@@ -3891,16 +4328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>639233</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>227542</xdr:rowOff>
+      <xdr:rowOff>5292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>13759</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3915,8 +4352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2607733" y="16060209"/>
-          <a:ext cx="1974850" cy="251883"/>
+          <a:off x="2628900" y="15837959"/>
+          <a:ext cx="1974850" cy="449791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3960,7 +4397,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(GET):    /route</a:t>
+            <a:t>(GET):    /route/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (name='route')</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -5054,16 +5505,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>655109</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>210607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:colOff>5292</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5078,8 +5529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19821525" y="1800225"/>
-          <a:ext cx="1987550" cy="254000"/>
+          <a:off x="19683942" y="1607607"/>
+          <a:ext cx="1974850" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5123,7 +5574,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(GET):    /form/&lt;int:id&gt;/</a:t>
+            <a:t>(GET):    /form/&lt;int:id&gt;/   (name="form_detail")</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -5146,8 +5597,8 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5163,7 +5614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17732375" y="7460192"/>
-          <a:ext cx="5884333" cy="3027891"/>
+          <a:ext cx="5884333" cy="3535891"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5210,6 +5661,21 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>spot_detail(request, id)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>関数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
             <a:t>/form/1/</a:t>
           </a:r>
           <a:r>
@@ -5775,7 +6241,7 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5790,8 +6256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25111075" y="7320492"/>
-          <a:ext cx="5918200" cy="2750608"/>
+          <a:off x="24950208" y="7455959"/>
+          <a:ext cx="5884334" cy="3010958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5830,6 +6296,21 @@
             <a:t>サーバ側</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>plus_fab(request, id)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>関数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
         </a:p>
         <a:p>
           <a:r>
@@ -6033,17 +6514,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>加算する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>加算する、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -6723,16 +7231,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>364067</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14817</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>106892</xdr:rowOff>
+      <xdr:rowOff>11642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>645584</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6747,8 +7255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487400" y="15706725"/>
-          <a:ext cx="4218517" cy="1755775"/>
+          <a:off x="13794317" y="15611475"/>
+          <a:ext cx="4218517" cy="1840442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6893,23 +7401,640 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11112</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B146F954-56EA-450F-AC9A-6D7607BF9691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12558712" y="8694737"/>
+          <a:ext cx="1982788" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9979</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47897</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>3629</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34366DCF-8715-4A8B-A0FA-4DC24727D12F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672193" y="5909128"/>
+          <a:ext cx="3966936" cy="220436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C798347-9FDB-46CF-9F73-D5EDAA9BCB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="5911850"/>
+          <a:ext cx="3640164" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fire Base API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の準備</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アカウント作成、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キーの取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430D324E-98BE-4543-A8D0-0257C8431B8B}"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD7BDF8-21B9-4078-B7DD-38F6AB2EEE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="234949"/>
+          <a:ext cx="4622800" cy="222251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B979B1-A748-4003-B2F2-9052999731B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="184150"/>
+          <a:ext cx="3640164" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>デザイン設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D5DBC6-E14E-4713-85ED-3ADAC73E01BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9912350" y="463549"/>
+          <a:ext cx="4622800" cy="222251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5978FA-2E2E-4D3E-96C2-108F08B2BB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10426700" y="412750"/>
+          <a:ext cx="3640164" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>デザインに沿って</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html/css</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E175B7AB-1FE1-4AD7-B484-2C89F80A39FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6917,18 +8042,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5257800" y="546100"/>
-          <a:ext cx="2714897" cy="1282700"/>
+          <a:off x="4679950" y="222250"/>
+          <a:ext cx="641350" cy="8874125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -6959,20 +8082,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>55971</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>131629</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1426416" cy="1074871"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE0B5E9-D6FF-4CBD-B438-800B01934FF8}"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E1F955-2C05-46DF-92BA-AED3598CD4C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6980,8 +8108,69 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339171" y="588829"/>
-          <a:ext cx="1426416" cy="1074871"/>
+          <a:off x="660400" y="901699"/>
+          <a:ext cx="3956050" cy="222251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1089B8-6FF5-4067-895A-E57074536401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831850" y="857250"/>
+          <a:ext cx="3640164" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7008,33 +8197,113 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>tag_table</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>tag_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>name</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Google Map API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の準備</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アカウント作成、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キーの取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7043,22 +8312,2263 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>73297</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DBD579-52AF-4B85-975D-DDBAA1C9F394}"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969816E8-C3B1-428E-925C-049948E2E16F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1987550" y="1142999"/>
+          <a:ext cx="2635250" cy="234951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2413000" cy="228600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4FB723-DE44-4836-B65F-87801822FF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1117600"/>
+          <a:ext cx="2413000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>スポットを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>から取得、フロント側に送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7054</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654049</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA750D60-7B50-477E-9057-1F51250C4FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5312832" y="7909278"/>
+          <a:ext cx="2636661" cy="218722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1936750" cy="215900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB87B295-7EF7-4B5D-80B7-9C1412A929AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5588000" y="7994650"/>
+          <a:ext cx="1936750" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>地図の描画</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(Google Map API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>の利用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1339B7E-4219-4DAC-A302-3C67833CFB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7959271" y="8167914"/>
+          <a:ext cx="1953079" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>653345</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>220537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2019300" cy="234950"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A943B640-3BFC-425D-B69C-FDEEB9255628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7937702" y="8158037"/>
+          <a:ext cx="2019300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タッチイベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タイトルや概要表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>211138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="234950"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFF2CCA-EC68-40F1-A836-0E9DCAC7049A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12598400" y="8669338"/>
+          <a:ext cx="1930400" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タッチイベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ページ遷移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA2B9CB-C859-440A-9630-D4F1FCE4FB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="8464549"/>
+          <a:ext cx="2635250" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1846507" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655112C-DEEE-4D4F-B844-C9ACB71557E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10318750" y="8439150"/>
+          <a:ext cx="1846507" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タッチイベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>画像表示、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>firebase)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105129</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1122538" cy="245533"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE71FB12-914B-492C-93BC-5502DC9D689D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410907" y="6069188"/>
+          <a:ext cx="1122538" cy="245533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>部品配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E0D06B-3797-4919-AEC4-FD0AD3B8CC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="1377949"/>
+          <a:ext cx="1320800" cy="215901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1016000" cy="196850"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011E25C3-2DBA-4D4A-83CF-86EF1BD8EB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416550" y="1358900"/>
+          <a:ext cx="1016000" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>評価を増やす</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E8F29B-E704-443A-87A0-9613E5A45C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="1600199"/>
+          <a:ext cx="1320800" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="215900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC2F63C-0199-4D2F-9DD7-ED3F8F874ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5403850" y="1587500"/>
+          <a:ext cx="971550" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>スクレイピング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6E4791-4EBC-43FF-A870-DFC2D0A3F627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1841499"/>
+          <a:ext cx="1308100" cy="215901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="793750" cy="203200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C371D5-C376-40AF-AD93-832FA6D5049E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="1809750"/>
+          <a:ext cx="793750" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>学習・推論</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B570DA1-FF6F-4ADD-8D73-0AF907AB34F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7931150" y="2070099"/>
+          <a:ext cx="1968500" cy="222251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="215900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370FCCFE-669E-42E4-BD0F-D85128A28264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8375650" y="2057400"/>
+          <a:ext cx="1104900" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>デプロイ準備</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(AWS)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CD9729-F731-4E41-8CAD-CA4BC407EC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9912350" y="2292350"/>
+          <a:ext cx="4597400" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="215901"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB1AD1B-8B5B-44DE-B529-43B4D35AF2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10356850" y="2260599"/>
+          <a:ext cx="3640164" cy="215901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>デザインに沿って</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html/css</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B59E16-B5E8-49CB-BE0A-00FAB756F03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9912350" y="2539999"/>
+          <a:ext cx="1968500" cy="209551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1460500" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32564DA8-BF70-4B09-98F6-2B050CC88B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10079038" y="2538413"/>
+          <a:ext cx="1460500" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>結果を小さい地図上に描画</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>658811</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C2D541-6234-4548-B5E0-2DEEA0ADF6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11863386" y="2767012"/>
+          <a:ext cx="1971675" cy="233363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7054</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>224366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECD8B06-BFE9-403F-88AA-06BE56F0E971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8628943" y="6546144"/>
+          <a:ext cx="1982613" cy="227189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208139</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1846507" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07143250-19A1-4604-AF2B-27E33790509C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8728426" y="6529917"/>
+          <a:ext cx="1846507" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>画像取り扱いサポート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1936750" cy="215900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E816DAE9-F20F-4D32-BED7-D07D2568F21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10584" y="10037234"/>
+          <a:ext cx="1936750" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>手空きの人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3640164" cy="1524000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DDF005-5EED-4CB5-8623-B8C710D95915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10329334"/>
+          <a:ext cx="3640164" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・住所入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-js:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>郵便番号を住所にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-js:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位置情報を住所にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>js:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細ページでの画像読み込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B6AB6C-7EB5-45C0-8BA9-12FB7D962475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10587264" y="5224477"/>
+          <a:ext cx="2636157" cy="220437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>投稿時の画像を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>に送信、保管</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>218636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EE51F5-C341-4D93-81DE-43B6F5DFB0BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5312001" y="4760700"/>
+          <a:ext cx="2637745" cy="220436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>201628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2362200" cy="260350"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F44E57B-E0D2-4627-86B2-33125D3365BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5387975" y="4773628"/>
+          <a:ext cx="2362200" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>投稿機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>:(form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>、サーバ側に入力内容を送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662213</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FF4B98-9F65-48A3-B214-1A66E36A4804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7946570" y="4997692"/>
+          <a:ext cx="2634343" cy="222024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>フロント側からのスポット入力を登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>225652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>197304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E7A3CB-1B38-4DE1-A121-096B5AD95B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,18 +10576,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297714" y="2899228"/>
-          <a:ext cx="2722154" cy="3233057"/>
+          <a:off x="17208500" y="225652"/>
+          <a:ext cx="662214" cy="9043081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7108,20 +10616,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30571</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55428</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1426416" cy="2956287"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>222073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5644</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>225250</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9B3F37-F250-4127-B539-D8BB3E48A3D6}"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85B809-8F60-4574-88BA-5973F537C439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7129,8 +10642,73 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5328285" y="3003642"/>
-          <a:ext cx="1426416" cy="2956287"/>
+          <a:off x="5314598" y="3382962"/>
+          <a:ext cx="2649713" cy="228955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2354264" cy="230187"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C03A4A-2381-4EB0-B1C5-6EBB70457F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5387975" y="3409951"/>
+          <a:ext cx="2354264" cy="230187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7157,123 +10735,40 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>form_table</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>form_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>customer_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>tag_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>title</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>description</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>image_url</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>location_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>address</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>prefecture</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fab_count</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>検索機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>、サーバ側に検索内容を送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7281,46 +10776,899 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11249</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562C98CF-37B6-4755-A02A-79586F8156EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="3651249"/>
+          <a:ext cx="2644776" cy="230188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2090739" cy="228598"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A314BC94-3899-4E24-994A-21396039B929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8127999" y="3633789"/>
+          <a:ext cx="2090739" cy="228598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>フロント側からの検索入力を用い検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198437</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595437" cy="222250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AE3B6E-29E4-409E-B5CA-4E80A3759524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12057062" y="2762250"/>
+          <a:ext cx="1595437" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>都道府県切り出し、検索改良</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0013336-4E8D-4EFD-B9F6-748E3F8711F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572751" y="3881436"/>
+          <a:ext cx="2644776" cy="230189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>212727</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2430463" cy="250824"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BD60FC-E69A-4087-95A0-5C35DBE71AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10666412" y="3870327"/>
+          <a:ext cx="2430463" cy="250824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>python:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>住所から緯度・経度を取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(Map API)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBA21F2-F2F2-4893-9DAD-B625A6FA78C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13208001" y="4116386"/>
+          <a:ext cx="1328737" cy="227014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>206376</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1246187" cy="217487"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85643A8-52F0-4FE4-922B-396B6614F322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13227051" y="4092576"/>
+          <a:ext cx="1246187" cy="217487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>緯度・経度情報を登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>215915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>656168</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>225777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228F7C85-5616-47C6-B946-ACD6DF97BC39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5290432" y="6086137"/>
+          <a:ext cx="1334736" cy="235640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2997</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>220149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>656165</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400B7764-114C-4CFE-A34F-5D22C11E167D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635219" y="6316149"/>
+          <a:ext cx="1979613" cy="238462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594783</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2170995" cy="524934"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BD0848-FD78-4E00-B546-26E61E967DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10543116" y="6749345"/>
+          <a:ext cx="2170995" cy="524934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>選択イベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>「選択する」ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>押下時、チェックボタン押下時</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483306</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2395360" cy="276578"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1045583C-BBBD-4600-A120-CE68578A1B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6452306" y="6299200"/>
+          <a:ext cx="2395360" cy="276578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>スポット数入力に応じて動的に欄を拡張</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10051</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>218724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473EB655-7F75-4F98-8F20-83ADDBA21475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10621607" y="6766280"/>
+          <a:ext cx="1972560" cy="465664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>155222</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162277</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F60C375-FE98-40FE-9CF2-070815B70ACF}"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F87703-6FD2-43AE-A94A-3EA077BDB541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6622145" y="1826986"/>
-          <a:ext cx="11247" cy="1021443"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm flipV="1">
+          <a:off x="9793111" y="5475111"/>
+          <a:ext cx="973667" cy="1008944"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7331,46 +11679,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>112849</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>434623</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500945</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>204611</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54C4624-A5C9-4587-B8F8-AB2D762709D0}"/>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B222F79-0D82-454B-8CDD-DD25D52AB661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3414849" y="3848100"/>
-          <a:ext cx="1817551" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="9719734" y="6876345"/>
+          <a:ext cx="729544" cy="1456266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7381,323 +11732,870 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>220148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>656165</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8126E77D-1721-404B-ACBB-519B1B56543F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF516428-6B3E-4655-B1B8-2E212A4FE9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3517900" y="3962400"/>
-          <a:ext cx="50800" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="12604221" y="7219259"/>
+          <a:ext cx="1979611" cy="231408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>210962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="989895" cy="205316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320832E3-6142-44C4-940B-83F98A836404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13064772" y="7210073"/>
+          <a:ext cx="989895" cy="205316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C2EDA9-8B70-40A5-A59D-FF98AF75F79D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>最適経路表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181834</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="2152384"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44DF173-3A94-44DF-91D3-4E11B8D379C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="3708400"/>
-          <a:ext cx="50800" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="4724920" y="2676477"/>
+          <a:ext cx="492443" cy="2152384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>環</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>境</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>構</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>築</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>78535</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107448</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="1122359"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E21513D-CFA6-4227-980E-17CD66618CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17296106" y="3055662"/>
+          <a:ext cx="492443" cy="1122359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>発</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>表</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262464</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2DD5AD-4CDC-4A90-8C32-29759A42D9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574797" y="285750"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959221BC-FA88-4D6F-AD77-E48398B9EF2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4991100" y="3670300"/>
-          <a:ext cx="190500" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>篠田早希</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277281</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29ED2E68-0092-48CA-9FCD-7FCAF5E61EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1589614" y="1464732"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D5D25A-1FBA-4F67-8729-184AADFBC8D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5003800" y="3911600"/>
-          <a:ext cx="190500" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>山守一輝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>270932</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23E2A5D-EF1F-436F-AE59-56D34A5A1B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1583265" y="3141134"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6C6948-5D53-46BD-B0C5-EEEE4C83B7F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6417129" y="2030186"/>
-          <a:ext cx="395514" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>浦川大輝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55019</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA006F7-1C79-4D9E-ADED-08184EBC1155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="8204186"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8660D3D9-5F9C-4AA9-B93D-881FEAD86093}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6417129" y="2710543"/>
-          <a:ext cx="395514" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>都築誠太</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80419</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8684636-005C-4103-A393-7A20E47E0D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591733" y="4737086"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>岩井真由</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188387</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325033" cy="328084"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="テキスト ボックス 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D402C8-545F-4F10-9AFC-82463624E452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500720" y="6100219"/>
+          <a:ext cx="1325033" cy="328084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>加藤美芸瑠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47897</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC3952A-FC94-4FD1-855D-7CA1B5B16F17}"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430D324E-98BE-4543-A8D0-0257C8431B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7705,16 +12603,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="228600"/>
-          <a:ext cx="14262100" cy="8699500"/>
+          <a:off x="5257800" y="546100"/>
+          <a:ext cx="2714897" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7747,18 +12647,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>398871</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>220529</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1426416" cy="376371"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55971</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>131629</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1426416" cy="1074871"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FBDC79-BD5F-41B2-AA4A-BB8F9BD45954}"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE0B5E9-D6FF-4CBD-B438-800B01934FF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7766,8 +12666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12946471" y="8450129"/>
-          <a:ext cx="1426416" cy="376371"/>
+          <a:off x="5339171" y="588829"/>
+          <a:ext cx="1426416" cy="1074871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7796,13 +12696,31 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>public</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
-            <a:t>スキーマ</a:t>
-          </a:r>
+            <a:t>tag_table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tag_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7810,23 +12728,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75111</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73297</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC06084-7965-4367-AAF7-1E7F90181EF4}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DBD579-52AF-4B85-975D-DDBAA1C9F394}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7834,8 +12752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662214" y="2957286"/>
-          <a:ext cx="2723968" cy="2258785"/>
+          <a:off x="5297714" y="2899228"/>
+          <a:ext cx="2722154" cy="3233057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7878,18 +12796,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>83185</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30571</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>49987</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1426416" cy="2127156"/>
+      <xdr:rowOff>55428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1426416" cy="2956287"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C46E12A-CF70-456C-B8A9-F3E01EF154E8}"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9B3F37-F250-4127-B539-D8BB3E48A3D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7897,8 +12815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="745399" y="2998201"/>
-          <a:ext cx="1426416" cy="2127156"/>
+          <a:off x="5328285" y="3003642"/>
+          <a:ext cx="1426416" cy="2956287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7927,7 +12845,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>customer_table</a:t>
+            <a:t>form_table</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7940,43 +12858,107 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>form_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>customer_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
-            <a:t>(name_furigana)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
-            <a:t>(phone)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
-            <a:t>(age)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
-            <a:t>(gender)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
-            <a:t>user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tag_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>image_url</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>location_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>address</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>prefecture</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fab_count</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7985,23 +12967,423 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2179</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F60C375-FE98-40FE-9CF2-070815B70ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6622143" y="1854199"/>
+          <a:ext cx="2179" cy="985157"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112849</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54C4624-A5C9-4587-B8F8-AB2D762709D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3414849" y="3848100"/>
+          <a:ext cx="1817551" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8126E77D-1721-404B-ACBB-519B1B56543F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="3962400"/>
+          <a:ext cx="50800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C2EDA9-8B70-40A5-A59D-FF98AF75F79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="3708400"/>
+          <a:ext cx="50800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959221BC-FA88-4D6F-AD77-E48398B9EF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4991100" y="3670300"/>
+          <a:ext cx="190500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D5D25A-1FBA-4F67-8729-184AADFBC8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5003800" y="3911600"/>
+          <a:ext cx="190500" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6C6948-5D53-46BD-B0C5-EEEE4C83B7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6417129" y="2030186"/>
+          <a:ext cx="395514" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8660D3D9-5F9C-4AA9-B93D-881FEAD86093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6417129" y="2710543"/>
+          <a:ext cx="395514" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A291560F-9F66-4F49-8040-799B3C94625C}"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC3952A-FC94-4FD1-855D-7CA1B5B16F17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,18 +13391,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662215" y="453573"/>
-          <a:ext cx="2648856" cy="1923142"/>
+          <a:off x="266700" y="228600"/>
+          <a:ext cx="14262100" cy="8699500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -8053,18 +13433,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>81370</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42730</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1849029" cy="1916699"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>398871</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>220529</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1426416" cy="376371"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0111A74-0F96-49BE-9D4C-8509EF59FEAC}"/>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FBDC79-BD5F-41B2-AA4A-BB8F9BD45954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8072,8 +13452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="743584" y="496301"/>
-          <a:ext cx="1849029" cy="1916699"/>
+          <a:off x="12946471" y="8450129"/>
+          <a:ext cx="1426416" cy="376371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8102,63 +13482,13 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>user_table</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>スキーマ</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>username </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>password </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>is_superuser</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>email</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>is_staff</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8166,23 +13496,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>640441</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53338</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75111</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF72AB9D-CF3F-4424-B52B-ABA9001D7773}"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC06084-7965-4367-AAF7-1E7F90181EF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8190,8 +13520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2627084" y="6360885"/>
-          <a:ext cx="2723968" cy="1513115"/>
+          <a:off x="662214" y="2957286"/>
+          <a:ext cx="2723968" cy="2258785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8234,18 +13564,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>61412</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53614</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1426416" cy="1352458"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83185</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49987</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1426416" cy="2127156"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A78B9C-A457-4A9D-BB05-D9E519D4CF7A}"/>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C46E12A-CF70-456C-B8A9-F3E01EF154E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8253,8 +13583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2710269" y="6403614"/>
-          <a:ext cx="1426416" cy="1352458"/>
+          <a:off x="745399" y="2998201"/>
+          <a:ext cx="1426416" cy="2127156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8283,7 +13613,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-            <a:t>location_table</a:t>
+            <a:t>customer_table</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8296,59 +13626,32 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>customer_id</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
+            <a:t>(age)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
+            <a:t>(gender)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
+            <a:t>user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none"/>
             <a:t>location_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>lon(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>経度</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>lat(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>緯度</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8357,323 +13660,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>272506</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1814</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線コネクタ 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A266916-AB77-44E0-8D6B-42116FB37196}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1596935" y="5444671"/>
-          <a:ext cx="1496422" cy="742043"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>589642</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45356</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線コネクタ 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC196D7-A14A-4393-9A8F-214FC4709180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1787071" y="5379356"/>
-          <a:ext cx="127000" cy="335643"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107044</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>252186</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線コネクタ 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141E00F7-091C-4F25-8AF4-C0796313E3B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2755901" y="5831114"/>
-          <a:ext cx="145142" cy="362858"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>326574</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>208643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線コネクタ 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1C4DD7-88D8-49C3-8C11-D5C3EF117D16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3637645" y="5651500"/>
-          <a:ext cx="1433284" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7256</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145143</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線コネクタ 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B64606D-A8CA-4F08-9A72-F1665FDC4830}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4642756" y="5558970"/>
-          <a:ext cx="137887" cy="373744"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>604157</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>141512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線コネクタ 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E263CA6-30F8-46A9-9EA1-E78B59BBE2F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3915228" y="5811155"/>
-          <a:ext cx="166915" cy="375558"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36285</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>607786</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99787</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="角丸四角形吹き出し 443">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06475F9-E90C-40A7-9FE1-0EFB7B771757}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A291560F-9F66-4F49-8040-799B3C94625C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8681,22 +13684,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6658428" y="4490358"/>
-          <a:ext cx="1895929" cy="371929"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -9236"/>
-            <a:gd name="adj2" fmla="val -44535"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+          <a:off x="662215" y="453573"/>
+          <a:ext cx="2648856" cy="1923142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -8721,68 +13720,344 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>画像は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>firebase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>で管理する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81370</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42730</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1849029" cy="1916699"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0111A74-0F96-49BE-9D4C-8509EF59FEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="743584" y="496301"/>
+          <a:ext cx="1849029" cy="1916699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+            <a:t>user_table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>username </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>password </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>is_superuser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>email</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>is_staff</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128814</xdr:rowOff>
+      <xdr:colOff>640441</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>364</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172355</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53338</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF72AB9D-CF3F-4424-B52B-ABA9001D7773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2627084" y="6360885"/>
+          <a:ext cx="2723968" cy="1513115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53614</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1426416" cy="1352458"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A78B9C-A457-4A9D-BB05-D9E519D4CF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2710269" y="6403614"/>
+          <a:ext cx="1426416" cy="1352458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+            <a:t>location_table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>location_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lon(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>経度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lat(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>緯度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>272506</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D8DF36-DB02-4E1E-9CD8-B44A7BC2B1FA}"/>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A266916-AB77-44E0-8D6B-42116FB37196}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1986643" y="2396671"/>
-          <a:ext cx="364" cy="497113"/>
+        <a:xfrm>
+          <a:off x="1596935" y="5444671"/>
+          <a:ext cx="1496422" cy="742043"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8808,22 +14083,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>473528</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725BF851-57DB-4C7D-8A40-5ECDCC7129E8}"/>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC196D7-A14A-4393-9A8F-214FC4709180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8831,8 +14106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1797957" y="2527299"/>
-          <a:ext cx="395514" cy="0"/>
+          <a:off x="1787071" y="5379356"/>
+          <a:ext cx="127000" cy="335643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8857,23 +14132,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41728</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107044</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41728</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>252186</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C79F9DF-C985-4E30-BAC6-514D8B41FCDF}"/>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141E00F7-091C-4F25-8AF4-C0796313E3B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8881,8 +14156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1807029" y="2763157"/>
-          <a:ext cx="395514" cy="0"/>
+          <a:off x="2755901" y="5831114"/>
+          <a:ext cx="145142" cy="362858"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8905,10 +14180,510 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>326574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1C4DD7-88D8-49C3-8C11-D5C3EF117D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3637645" y="5651500"/>
+          <a:ext cx="1433284" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7256</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B64606D-A8CA-4F08-9A72-F1665FDC4830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4642756" y="5558970"/>
+          <a:ext cx="137887" cy="373744"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E263CA6-30F8-46A9-9EA1-E78B59BBE2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3915228" y="5811155"/>
+          <a:ext cx="166915" cy="375558"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="角丸四角形吹き出し 443">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06475F9-E90C-40A7-9FE1-0EFB7B771757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6658428" y="4490358"/>
+          <a:ext cx="1895929" cy="371929"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9236"/>
+            <a:gd name="adj2" fmla="val -44535"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で管理する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D8DF36-DB02-4E1E-9CD8-B44A7BC2B1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1986643" y="2396671"/>
+          <a:ext cx="364" cy="497113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>473528</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725BF851-57DB-4C7D-8A40-5ECDCC7129E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1797957" y="2527299"/>
+          <a:ext cx="395514" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C79F9DF-C985-4E30-BAC6-514D8B41FCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1807029" y="2763157"/>
+          <a:ext cx="395514" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36162BA-8817-4A3A-8146-160A9ACCD163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6627586" y="2723243"/>
+          <a:ext cx="190500" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60492BA-6315-4387-92D9-577DA2734A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6522357" y="2703287"/>
+          <a:ext cx="99785" cy="172356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10804,8 +16579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE79D76-4648-43BD-B734-544D49DCFABE}">
   <dimension ref="AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="CB49" sqref="CB49"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ92" sqref="BJ91:BK92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10822,11 +16597,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205F8-9F5E-4948-9FFC-9E4C8D95CDA6}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA38122-CDD1-42DD-9DAD-B5DE8C29AEA2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10837,11 +16713,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4938895-935B-4746-B7E7-CA6D286FA6D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>

--- a/doc/hacku_documents.xlsx
+++ b/doc/hacku_documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\velduce\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAAC670-32BC-4CE0-8492-C39F78A7ED71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8B4A7-C781-4602-8D0B-1113ABE5BD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Webアプリ" sheetId="1" r:id="rId1"/>
@@ -16579,8 +16579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE79D76-4648-43BD-B734-544D49DCFABE}">
   <dimension ref="AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ92" sqref="BJ91:BK92"/>
+    <sheetView topLeftCell="AU11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16600,8 +16600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205F8-9F5E-4948-9FFC-9E4C8D95CDA6}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16701,8 +16701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA38122-CDD1-42DD-9DAD-B5DE8C29AEA2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16717,8 +16717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4938895-935B-4746-B7E7-CA6D286FA6D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/hacku_documents.xlsx
+++ b/doc/hacku_documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\velduce\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8B4A7-C781-4602-8D0B-1113ABE5BD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF146E7-A553-4E69-B260-904F279DFF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
   </bookViews>
@@ -11298,13 +11298,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>647876</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>215915</xdr:rowOff>
+      <xdr:rowOff>222265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>656168</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>225777</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11319,8 +11319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5290432" y="6086137"/>
-          <a:ext cx="1334736" cy="235640"/>
+          <a:off x="8572676" y="6165865"/>
+          <a:ext cx="1329092" cy="238462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16579,7 +16579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE79D76-4648-43BD-B734-544D49DCFABE}">
   <dimension ref="AL53"/>
   <sheetViews>
-    <sheetView topLeftCell="AU11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -16600,8 +16600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205F8-9F5E-4948-9FFC-9E4C8D95CDA6}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="J23" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/doc/hacku_documents.xlsx
+++ b/doc/hacku_documents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minih\Desktop\hacku_2020\velduce\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF146E7-A553-4E69-B260-904F279DFF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB492CA-93E9-4967-A8DE-8EFC995546CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{24F7EB8C-86BF-4B97-B3D0-D9653980D93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Webアプリ" sheetId="1" r:id="rId1"/>
@@ -14688,15 +14688,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323362</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>36636</xdr:rowOff>
+      <xdr:colOff>307487</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>324060</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>204178</xdr:rowOff>
+      <xdr:colOff>308185</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14726,8 +14726,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2316285" y="7676174"/>
-          <a:ext cx="1329313" cy="1291004"/>
+          <a:off x="2307737" y="10101386"/>
+          <a:ext cx="1334198" cy="1278792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14749,15 +14749,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>532912</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>191478</xdr:rowOff>
+      <xdr:colOff>517037</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>32728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>628161</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11235</xdr:rowOff>
+      <xdr:colOff>612286</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>74735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14780,8 +14780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3854450" y="7606324"/>
-          <a:ext cx="1423865" cy="1392603"/>
+          <a:off x="3850787" y="10033978"/>
+          <a:ext cx="1428749" cy="1375507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14793,15 +14793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>657469</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185128</xdr:rowOff>
+      <xdr:colOff>641594</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>26378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>272561</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>125537</xdr:rowOff>
+      <xdr:colOff>256686</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>189037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14816,8 +14816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1986084" y="7375282"/>
-          <a:ext cx="3600939" cy="1737947"/>
+          <a:off x="1975094" y="9805378"/>
+          <a:ext cx="3615592" cy="1718409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14859,9 +14859,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180452</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125486</xdr:rowOff>
+      <xdr:colOff>164577</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>188986</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="577915" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -14877,7 +14877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3501990" y="7090948"/>
+          <a:off x="3498327" y="9523486"/>
           <a:ext cx="577915" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14929,15 +14929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>412261</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>178779</xdr:rowOff>
+      <xdr:colOff>459886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>291611</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>119185</xdr:rowOff>
+      <xdr:colOff>339236</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14952,8 +14952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076569" y="9840548"/>
-          <a:ext cx="2536580" cy="1962637"/>
+          <a:off x="1126636" y="7147904"/>
+          <a:ext cx="2546350" cy="1940656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14995,9 +14995,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>61024</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144536</xdr:rowOff>
+      <xdr:colOff>108649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1661</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600870" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -15013,7 +15013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2053947" y="9581613"/>
+          <a:off x="2108899" y="6891411"/>
           <a:ext cx="600870" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15065,15 +15065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361461</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>216877</xdr:rowOff>
+      <xdr:colOff>409086</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424961</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>158029</xdr:rowOff>
+      <xdr:colOff>472586</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15103,8 +15103,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1690076" y="10103339"/>
-          <a:ext cx="1392116" cy="1513998"/>
+          <a:off x="1742586" y="7408252"/>
+          <a:ext cx="1397000" cy="1496902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15123,79 +15123,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>94762</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>162973</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47136</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101112</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>204178</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9" descr="リザーブドインスタンス購入時の支払い方法一時切り替え | KDL 情's Café BLOG">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C343A7A0-12B2-41D1-8D36-542EBF21F059}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4744916" y="10049435"/>
-          <a:ext cx="1334965" cy="1389358"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>126511</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166079</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>106485</xdr:rowOff>
+      <xdr:colOff>593236</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15210,8 +15149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4112357" y="9827848"/>
-          <a:ext cx="2536581" cy="1962637"/>
+          <a:off x="4047636" y="7151079"/>
+          <a:ext cx="2546350" cy="1940656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15253,9 +15192,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>281363</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106436</xdr:rowOff>
+      <xdr:colOff>201988</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>201686</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="871393" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -15271,7 +15210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4931517" y="9543513"/>
+          <a:off x="4869238" y="6869186"/>
           <a:ext cx="871393" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15330,8 +15269,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>105998</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15346,8 +15285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677008" y="6721231"/>
-          <a:ext cx="6259147" cy="5742844"/>
+          <a:off x="679450" y="6650404"/>
+          <a:ext cx="6281128" cy="5398721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15386,77 +15325,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>244229</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19539</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132373</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7283</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>136769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13" descr="AWSマネジメントコンソールでサービスへのショートカット | レコチョクのエンジニアブログ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0978D6-1407-4DFF-8591-C9F7006DB092}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="20101" b="20753"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="908537" y="6086231"/>
-          <a:ext cx="1755977" cy="1016000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>5373</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9769</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9769</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15471,8 +15351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10006623" y="6673364"/>
-          <a:ext cx="4671646" cy="3115405"/>
+          <a:off x="10133623" y="6705114"/>
+          <a:ext cx="7074878" cy="3058011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15576,10 +15456,10 @@
       <xdr:rowOff>64479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>214180</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>166077</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>58187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15595,15 +15475,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10390065" y="7254633"/>
-          <a:ext cx="3774577" cy="2123829"/>
+          <a:off x="10426700" y="7176479"/>
+          <a:ext cx="3194050" cy="1771708"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15614,10 +15494,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>194231</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>49776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19606</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113276</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2339103" cy="693138"/>
     <xdr:sp macro="" textlink="">
@@ -15633,7 +15513,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4180077" y="6116468"/>
+          <a:off x="686356" y="5891776"/>
           <a:ext cx="2339103" cy="693138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15672,15 +15552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>107461</xdr:rowOff>
+      <xdr:colOff>588596</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>283308</xdr:colOff>
+      <xdr:colOff>315058</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:rowOff>1221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15695,8 +15575,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7199923" y="8196384"/>
-          <a:ext cx="2383693" cy="967154"/>
+          <a:off x="7256096" y="7933836"/>
+          <a:ext cx="2393462" cy="957385"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15725,15 +15605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6106</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:colOff>37856</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>379779</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90365</xdr:rowOff>
+      <xdr:colOff>411529</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>137990</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15748,7 +15628,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7340356" y="8526096"/>
+          <a:off x="7372106" y="8351471"/>
           <a:ext cx="2373923" cy="898769"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15802,7 +15682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15863,7 +15743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16275,6 +16155,643 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AA5A88-7F3F-4D28-A506-89986AEE613E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="23264" b="27084"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="7747000"/>
+          <a:ext cx="1936750" cy="721238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>31264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3419</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF5ABCD-748B-4773-9779-00BB23AD1DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10660673" y="10921514"/>
+          <a:ext cx="4677996" cy="1699111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145576</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114741</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3057247" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C03BD9-C912-42D3-A461-4E20C707E73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11480326" y="11449491"/>
+          <a:ext cx="3057247" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>コロナ関連サイト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>126315</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11D8916-7A5A-4CA2-A9AA-CCF9D4E47083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15833" t="34876" r="16041" b="29321"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14065251" y="7620000"/>
+          <a:ext cx="2729814" cy="968375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE241825-B222-416D-BC39-01EADB4381E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4857750" y="11842751"/>
+          <a:ext cx="5254625" cy="587374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35170</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D749CC7B-CF08-4E59-B0E8-01B191354745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4035670" y="12176125"/>
+          <a:ext cx="6203705" cy="1019420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>614500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>90625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47203FF-E85B-46F1-AE40-E122638DB198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="11763375"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610C8F86-EA3B-4553-910D-3E444F212DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3603625" y="11684000"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136284</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403617</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>195008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988331D4-EDF7-43BB-A1B1-D78B8D701232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4136784" y="11793418"/>
+          <a:ext cx="267333" cy="180840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11083</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>187766</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1980029" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF9F723-224F-4CA8-96DF-0042F423A13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1344583" y="12189266"/>
+          <a:ext cx="1980029" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>推論モデル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>492126</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 角を丸くする 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2B60C1-D498-42A1-A538-5EEC56D75E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158876" y="12160250"/>
+          <a:ext cx="2317749" cy="841375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16600,7 +17117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF205F8-9F5E-4948-9FFC-9E4C8D95CDA6}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="J28" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -16717,8 +17234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4938895-935B-4746-B7E7-CA6D286FA6D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
